--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 2,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 2,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 2,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 3,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 3,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,27</t>
+          <t>2,12; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,76</t>
+          <t>2,27; 3,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,66</t>
+          <t>2,31; 2,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,44</t>
+          <t>1,96; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,86</t>
+          <t>2,36; 3,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,48</t>
+          <t>2,31; 2,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,05</t>
+          <t>1,66; 2,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,39</t>
+          <t>1,99; 2,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,05</t>
+          <t>1,92; 2,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,01</t>
+          <t>1,61; 2,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,17</t>
+          <t>1,48; 2,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,95</t>
+          <t>1,69; 2,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>1,18</t>
         </is>
       </c>
     </row>
@@ -879,24 +879,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,95</t>
+          <t>0,94; 1,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,33</t>
+          <t>0,8; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,97</t>
+          <t>0,9; 1,46</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -929,185 +929,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,51</t>
+          <t>2,08; 2,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,82</t>
+          <t>2,17; 2,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,55</t>
+          <t>2,16; 2,41</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 2,68</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 2,54</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 1,77</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,5</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 1,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 2,43</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 2,52</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 2,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda</t>
+          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,43</t>
+          <t>1,54; 2,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,87</t>
+          <t>1,81; 2,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,49</t>
+          <t>1,76; 2,5</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,07</t>
+          <t>2,24; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,33</t>
+          <t>2,43; 3,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,1</t>
+          <t>2,43; 3,07</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,0</t>
+          <t>2,08; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,16</t>
+          <t>2,29; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,95</t>
+          <t>2,31; 2,98</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,35</t>
+          <t>2,37; 3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,98</t>
+          <t>2,28; 2,98</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,54</t>
+          <t>1,67; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,83</t>
+          <t>1,99; 2,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,56</t>
+          <t>1,95; 2,58</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,72</t>
+          <t>1,62; 2,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,49</t>
+          <t>1,47; 2,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,47</t>
+          <t>1,66; 2,41</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,78</t>
+          <t>0,93; 1,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,56</t>
+          <t>0,77; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,46</t>
+          <t>0,93; 1,49</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,42</t>
+          <t>2,07; 2,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,52</t>
+          <t>2,17; 2,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
